--- a/Normalisation.xlsx
+++ b/Normalisation.xlsx
@@ -92,30 +92,12 @@
     <t>Varchar2(10)</t>
   </si>
   <si>
-    <t>Top 100 currencies less than or equal to 5 chars</t>
-  </si>
-  <si>
-    <t>Top 100 currencies less than or equal to 21 chars</t>
-  </si>
-  <si>
-    <t>44 characters for each url</t>
-  </si>
-  <si>
     <t>Number(8,2)</t>
   </si>
   <si>
     <t>Number(7,4)</t>
   </si>
   <si>
-    <t>Foreign key from other table</t>
-  </si>
-  <si>
-    <t>1 price per minute per currency</t>
-  </si>
-  <si>
-    <t>BTC approximately $10,000. Requires cents</t>
-  </si>
-  <si>
     <t>Allows up to 999% growth in a minute, records small growths.</t>
   </si>
   <si>
@@ -123,6 +105,24 @@
   </si>
   <si>
     <t>BTC has nearly used half of 8 character values.</t>
+  </si>
+  <si>
+    <t>1 price per minute per currency.</t>
+  </si>
+  <si>
+    <t>BTC approximately $10,000. Requires cents.</t>
+  </si>
+  <si>
+    <t>Foreign key from other table.</t>
+  </si>
+  <si>
+    <t>44 characters for each url.</t>
+  </si>
+  <si>
+    <t>Top 100 currencies less than or equal to 21 chars.</t>
+  </si>
+  <si>
+    <t>Top 100 currencies less than or equal to 5 chars.</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -162,13 +162,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +542,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,13 +571,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -538,14 +594,14 @@
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
-        <v>22</v>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -561,11 +617,12 @@
       <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
-        <v>23</v>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -581,11 +638,12 @@
       <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J5" t="s">
-        <v>24</v>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -611,14 +669,14 @@
       <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s">
-        <v>27</v>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -634,11 +692,12 @@
       <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" t="s">
-        <v>28</v>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -654,11 +713,12 @@
       <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
+      <c r="H10" s="4"/>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -674,11 +734,12 @@
       <c r="G11" t="s">
         <v>6</v>
       </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -691,11 +752,12 @@
       <c r="G12" t="s">
         <v>8</v>
       </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
+      <c r="H12" s="4"/>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -708,11 +770,12 @@
       <c r="G13" t="s">
         <v>7</v>
       </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
+      <c r="H13" s="4"/>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -725,11 +788,12 @@
       <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J14" t="s">
-        <v>32</v>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Normalisation.xlsx
+++ b/Normalisation.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkell\Desktop\Final Project\PRCO304\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkell\Desktop\FinalProject\PRCO304\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAF8CBF-C8D9-44F6-A36C-B6F96E345D00}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{65D74E02-44FD-422C-BB13-FE6445EF28DA}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t>CurrencyID</t>
   </si>
@@ -123,13 +124,25 @@
   </si>
   <si>
     <t>Top 100 currencies less than or equal to 5 chars.</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>A Currency has a single Exchange Rate at any given point in time.</t>
+  </si>
+  <si>
+    <t>The Exchange Rate's time specifies value (in USD for simplicity), growth and predictions.</t>
+  </si>
+  <si>
+    <t>The LastGDAXTrade number is stored for ease of navigation to gaps in data should they occur.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +152,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -218,13 +239,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6556EAE-A0ED-4D1F-AF39-DD59458063E5}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,11 +575,12 @@
     <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -570,18 +594,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,14 +624,17 @@
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -619,13 +649,16 @@
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -640,23 +673,38 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -672,14 +720,17 @@
       <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -693,14 +744,17 @@
         <v>4</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -715,13 +769,16 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -736,13 +793,16 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -754,13 +814,16 @@
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -772,13 +835,16 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>10</v>
       </c>
@@ -790,10 +856,28 @@
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Normalisation.xlsx
+++ b/Normalisation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkell\Desktop\FinalProject\PRCO304\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAF8CBF-C8D9-44F6-A36C-B6F96E345D00}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24C754F-05B0-4B99-8E22-CA21FAA8FDB3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{65D74E02-44FD-422C-BB13-FE6445EF28DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>CurrencyID</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Growth</t>
   </si>
   <si>
-    <t>NeuralNetworkPredictedGrowth</t>
-  </si>
-  <si>
-    <t>GOFAIPredictedGrowth</t>
-  </si>
-  <si>
     <t>1NF</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>Allows up to 999% growth in a minute, records small growths.</t>
   </si>
   <si>
-    <t>Copies growth.</t>
-  </si>
-  <si>
     <t>BTC has nearly used half of 8 character values.</t>
   </si>
   <si>
@@ -120,12 +111,6 @@
     <t>44 characters for each url.</t>
   </si>
   <si>
-    <t>Top 100 currencies less than or equal to 21 chars.</t>
-  </si>
-  <si>
-    <t>Top 100 currencies less than or equal to 5 chars.</t>
-  </si>
-  <si>
     <t>Column</t>
   </si>
   <si>
@@ -136,6 +121,12 @@
   </si>
   <si>
     <t>The LastGDAXTrade number is stored for ease of navigation to gaps in data should they occur.</t>
+  </si>
+  <si>
+    <t>Top 100 currencies have less than or equal to 5 chars.</t>
+  </si>
+  <si>
+    <t>Top 100 currencies have less than or equal to 21 chars.</t>
   </si>
 </sst>
 </file>
@@ -562,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6556EAE-A0ED-4D1F-AF39-DD59458063E5}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,27 +576,27 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -622,13 +613,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>32</v>
@@ -652,10 +643,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -676,10 +667,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -692,16 +683,16 @@
         <v>5</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -718,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -751,13 +742,10 @@
         <v>4</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -772,16 +760,13 @@
         <v>5</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -796,10 +781,10 @@
         <v>6</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -812,72 +797,30 @@
       <c r="G12" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>26</v>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Normalisation.xlsx
+++ b/Normalisation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkell\Desktop\FinalProject\PRCO304\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24C754F-05B0-4B99-8E22-CA21FAA8FDB3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E1AF3D-66D5-4136-A862-5415783B24A5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{65D74E02-44FD-422C-BB13-FE6445EF28DA}"/>
   </bookViews>
@@ -166,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -226,19 +226,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +604,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,239 +620,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H2" s="6" t="s">
+      <c r="A2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="C7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="A10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="A11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="A12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
